--- a/SubRES_TMPL/subres_NEW_PP_STG.xlsx
+++ b/SubRES_TMPL/subres_NEW_PP_STG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\TIMES_Kraszewski\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEEB1BB-EDB2-41F8-A3DA-17AB2A50C0CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9092C1B3-DF76-46D5-BD8F-9A64CA014ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="850" windowWidth="21150" windowHeight="14900" activeTab="6" xr2:uid="{101DBA6F-19E2-4CD0-9C26-9AF2E34057CC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{101DBA6F-19E2-4CD0-9C26-9AF2E34057CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="7" r:id="rId1"/>
@@ -1305,7 +1305,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1448,17 +1448,14 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Hiperłącze 2 4 2" xfId="5" xr:uid="{99D24849-9800-4B70-BA9C-E0DFB3CE54B6}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal - Style1 2 2 3" xfId="7" xr:uid="{A49F9F0B-C612-415E-AD6A-D7A4A63DD743}"/>
     <cellStyle name="Normal 10 15 2" xfId="2" xr:uid="{589B731F-54D0-4FCA-8EF1-389FB8C103D5}"/>
     <cellStyle name="Normal 2" xfId="4" xr:uid="{1AF47B0F-FE84-4945-8C4D-E26ECF59E491}"/>
     <cellStyle name="Normal 39 2 2" xfId="1" xr:uid="{A0D1108C-36AA-45D4-9AEE-2014BA6F6478}"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 10 10" xfId="6" xr:uid="{D94399DA-9427-4E02-A3FD-425D0DB434D2}"/>
     <cellStyle name="Normalny 43 2" xfId="3" xr:uid="{B7C3876B-60EB-454E-BC17-BE18F4789875}"/>
   </cellStyles>
@@ -1692,9 +1689,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Pakiet Office 2013–2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1732,7 +1729,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Pakiet Office 2013–2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1838,7 +1835,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Pakiet Office 2013–2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1994,12 +1991,12 @@
       <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="18.5"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="3" width="4" style="16" customWidth="1"/>
-    <col min="4" max="9" width="14.1796875" style="16" customWidth="1"/>
+    <col min="4" max="9" width="14.21875" style="16" customWidth="1"/>
     <col min="10" max="12" width="4" style="16" customWidth="1"/>
-    <col min="13" max="16384" width="9.08984375" style="16"/>
+    <col min="13" max="16384" width="9.109375" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" customHeight="1">
@@ -2455,7 +2452,7 @@
       <c r="L40" s="15"/>
     </row>
     <row r="48" spans="1:12" ht="59.4" customHeight="1"/>
-    <row r="49" ht="64.25" customHeight="1"/>
+    <row r="49" ht="64.2" customHeight="1"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="D32:E32"/>
@@ -2483,14 +2480,14 @@
       <selection activeCell="D8" sqref="D8:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="3" width="4" style="39" customWidth="1"/>
-    <col min="4" max="4" width="17.08984375" style="39" customWidth="1"/>
-    <col min="5" max="5" width="24.36328125" style="39" customWidth="1"/>
-    <col min="6" max="6" width="44.36328125" style="39" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" style="39" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" style="39" customWidth="1"/>
+    <col min="6" max="6" width="44.33203125" style="39" customWidth="1"/>
     <col min="7" max="9" width="4" style="39" customWidth="1"/>
-    <col min="10" max="16384" width="9.08984375" style="39"/>
+    <col min="10" max="16384" width="9.109375" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" customHeight="1">
@@ -2515,7 +2512,7 @@
       <c r="H2" s="19"/>
       <c r="I2" s="15"/>
     </row>
-    <row r="3" spans="1:9" ht="18.5">
+    <row r="3" spans="1:9" ht="18">
       <c r="A3" s="15"/>
       <c r="B3" s="20"/>
       <c r="C3" s="21"/>
@@ -2526,7 +2523,7 @@
       <c r="H3" s="24"/>
       <c r="I3" s="15"/>
     </row>
-    <row r="4" spans="1:9" ht="18.5">
+    <row r="4" spans="1:9" ht="18">
       <c r="A4" s="15"/>
       <c r="B4" s="20"/>
       <c r="C4" s="25"/>
@@ -2539,7 +2536,7 @@
       <c r="H4" s="24"/>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:9" ht="18.5">
+    <row r="5" spans="1:9" ht="18">
       <c r="A5" s="15"/>
       <c r="B5" s="20"/>
       <c r="C5" s="25"/>
@@ -2550,7 +2547,7 @@
       <c r="H5" s="24"/>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="1:9" ht="18.5">
+    <row r="6" spans="1:9" ht="18">
       <c r="A6" s="15"/>
       <c r="B6" s="20"/>
       <c r="C6" s="25"/>
@@ -2563,7 +2560,7 @@
       <c r="H6" s="24"/>
       <c r="I6" s="15"/>
     </row>
-    <row r="7" spans="1:9" ht="18.5">
+    <row r="7" spans="1:9" ht="18">
       <c r="A7" s="15"/>
       <c r="B7" s="20"/>
       <c r="C7" s="25"/>
@@ -2574,7 +2571,7 @@
       <c r="H7" s="24"/>
       <c r="I7" s="15"/>
     </row>
-    <row r="8" spans="1:9" ht="18.5">
+    <row r="8" spans="1:9" ht="18">
       <c r="A8" s="15"/>
       <c r="B8" s="20"/>
       <c r="C8" s="25"/>
@@ -2589,7 +2586,7 @@
       <c r="H8" s="24"/>
       <c r="I8" s="15"/>
     </row>
-    <row r="9" spans="1:9" ht="18.5">
+    <row r="9" spans="1:9" ht="18">
       <c r="A9" s="15"/>
       <c r="B9" s="20"/>
       <c r="C9" s="25"/>
@@ -2600,7 +2597,7 @@
       <c r="H9" s="24"/>
       <c r="I9" s="15"/>
     </row>
-    <row r="10" spans="1:9" ht="18.5">
+    <row r="10" spans="1:9" ht="18">
       <c r="A10" s="15"/>
       <c r="B10" s="20"/>
       <c r="C10" s="25"/>
@@ -2611,7 +2608,7 @@
       <c r="H10" s="24"/>
       <c r="I10" s="15"/>
     </row>
-    <row r="11" spans="1:9" ht="18.5">
+    <row r="11" spans="1:9" ht="18">
       <c r="A11" s="15"/>
       <c r="B11" s="20"/>
       <c r="C11" s="25"/>
@@ -2622,7 +2619,7 @@
       <c r="H11" s="24"/>
       <c r="I11" s="15"/>
     </row>
-    <row r="12" spans="1:9" ht="18.5">
+    <row r="12" spans="1:9" ht="18">
       <c r="A12" s="15"/>
       <c r="B12" s="20"/>
       <c r="C12" s="25"/>
@@ -2633,7 +2630,7 @@
       <c r="H12" s="24"/>
       <c r="I12" s="15"/>
     </row>
-    <row r="13" spans="1:9" ht="18.5">
+    <row r="13" spans="1:9" ht="18">
       <c r="A13" s="15"/>
       <c r="B13" s="20"/>
       <c r="C13" s="25"/>
@@ -2644,7 +2641,7 @@
       <c r="H13" s="24"/>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" spans="1:9" ht="18.5">
+    <row r="14" spans="1:9" ht="18">
       <c r="A14" s="15"/>
       <c r="B14" s="20"/>
       <c r="C14" s="25"/>
@@ -2655,7 +2652,7 @@
       <c r="H14" s="24"/>
       <c r="I14" s="15"/>
     </row>
-    <row r="15" spans="1:9" ht="18.5">
+    <row r="15" spans="1:9" ht="18">
       <c r="A15" s="15"/>
       <c r="B15" s="20"/>
       <c r="C15" s="25"/>
@@ -2666,7 +2663,7 @@
       <c r="H15" s="24"/>
       <c r="I15" s="15"/>
     </row>
-    <row r="16" spans="1:9" ht="18.5">
+    <row r="16" spans="1:9" ht="18">
       <c r="A16" s="15"/>
       <c r="B16" s="20"/>
       <c r="C16" s="25"/>
@@ -2677,7 +2674,7 @@
       <c r="H16" s="24"/>
       <c r="I16" s="15"/>
     </row>
-    <row r="17" spans="1:9" ht="18.5">
+    <row r="17" spans="1:9" ht="18">
       <c r="A17" s="15"/>
       <c r="B17" s="20"/>
       <c r="C17" s="25"/>
@@ -2688,7 +2685,7 @@
       <c r="H17" s="24"/>
       <c r="I17" s="15"/>
     </row>
-    <row r="18" spans="1:9" ht="18.5">
+    <row r="18" spans="1:9" ht="18">
       <c r="A18" s="15"/>
       <c r="B18" s="20"/>
       <c r="C18" s="25"/>
@@ -2699,7 +2696,7 @@
       <c r="H18" s="24"/>
       <c r="I18" s="15"/>
     </row>
-    <row r="19" spans="1:9" ht="18.5">
+    <row r="19" spans="1:9" ht="18">
       <c r="A19" s="15"/>
       <c r="B19" s="20"/>
       <c r="C19" s="25"/>
@@ -2710,7 +2707,7 @@
       <c r="H19" s="24"/>
       <c r="I19" s="15"/>
     </row>
-    <row r="20" spans="1:9" ht="18.5">
+    <row r="20" spans="1:9" ht="18">
       <c r="A20" s="15"/>
       <c r="B20" s="20"/>
       <c r="C20" s="25"/>
@@ -2721,7 +2718,7 @@
       <c r="H20" s="24"/>
       <c r="I20" s="15"/>
     </row>
-    <row r="21" spans="1:9" ht="18.5">
+    <row r="21" spans="1:9" ht="18">
       <c r="A21" s="15"/>
       <c r="B21" s="20"/>
       <c r="C21" s="25"/>
@@ -2732,7 +2729,7 @@
       <c r="H21" s="24"/>
       <c r="I21" s="15"/>
     </row>
-    <row r="22" spans="1:9" ht="18.5">
+    <row r="22" spans="1:9" ht="18">
       <c r="A22" s="15"/>
       <c r="B22" s="20"/>
       <c r="C22" s="25"/>
@@ -2743,7 +2740,7 @@
       <c r="H22" s="24"/>
       <c r="I22" s="15"/>
     </row>
-    <row r="23" spans="1:9" ht="18.5">
+    <row r="23" spans="1:9" ht="18">
       <c r="A23" s="15"/>
       <c r="B23" s="20"/>
       <c r="C23" s="25"/>
@@ -2754,7 +2751,7 @@
       <c r="H23" s="24"/>
       <c r="I23" s="15"/>
     </row>
-    <row r="24" spans="1:9" ht="18.5">
+    <row r="24" spans="1:9" ht="18">
       <c r="A24" s="15"/>
       <c r="B24" s="20"/>
       <c r="C24" s="25"/>
@@ -2765,7 +2762,7 @@
       <c r="H24" s="24"/>
       <c r="I24" s="15"/>
     </row>
-    <row r="25" spans="1:9" ht="18.5">
+    <row r="25" spans="1:9" ht="18">
       <c r="A25" s="15"/>
       <c r="B25" s="20"/>
       <c r="C25" s="25"/>
@@ -2776,7 +2773,7 @@
       <c r="H25" s="24"/>
       <c r="I25" s="15"/>
     </row>
-    <row r="26" spans="1:9" ht="18.5">
+    <row r="26" spans="1:9" ht="18">
       <c r="A26" s="15"/>
       <c r="B26" s="20"/>
       <c r="C26" s="25"/>
@@ -2787,7 +2784,7 @@
       <c r="H26" s="24"/>
       <c r="I26" s="15"/>
     </row>
-    <row r="27" spans="1:9" ht="18.5">
+    <row r="27" spans="1:9" ht="18">
       <c r="A27" s="15"/>
       <c r="B27" s="20"/>
       <c r="C27" s="25"/>
@@ -2798,7 +2795,7 @@
       <c r="H27" s="24"/>
       <c r="I27" s="15"/>
     </row>
-    <row r="28" spans="1:9" ht="18.5">
+    <row r="28" spans="1:9" ht="18">
       <c r="A28" s="15"/>
       <c r="B28" s="20"/>
       <c r="C28" s="25"/>
@@ -2809,7 +2806,7 @@
       <c r="H28" s="24"/>
       <c r="I28" s="15"/>
     </row>
-    <row r="29" spans="1:9" ht="18.5">
+    <row r="29" spans="1:9" ht="18">
       <c r="A29" s="15"/>
       <c r="B29" s="20"/>
       <c r="C29" s="25"/>
@@ -2820,7 +2817,7 @@
       <c r="H29" s="24"/>
       <c r="I29" s="15"/>
     </row>
-    <row r="30" spans="1:9" ht="18.5">
+    <row r="30" spans="1:9" ht="18">
       <c r="A30" s="15"/>
       <c r="B30" s="20"/>
       <c r="C30" s="25"/>
@@ -2831,7 +2828,7 @@
       <c r="H30" s="24"/>
       <c r="I30" s="15"/>
     </row>
-    <row r="31" spans="1:9" ht="18.5">
+    <row r="31" spans="1:9" ht="18">
       <c r="A31" s="15"/>
       <c r="B31" s="20"/>
       <c r="C31" s="25"/>
@@ -2842,7 +2839,7 @@
       <c r="H31" s="24"/>
       <c r="I31" s="15"/>
     </row>
-    <row r="32" spans="1:9" ht="18.5">
+    <row r="32" spans="1:9" ht="18">
       <c r="A32" s="15"/>
       <c r="B32" s="20"/>
       <c r="C32" s="25"/>
@@ -2853,7 +2850,7 @@
       <c r="H32" s="24"/>
       <c r="I32" s="15"/>
     </row>
-    <row r="33" spans="1:9" ht="18.5">
+    <row r="33" spans="1:9" ht="18">
       <c r="A33" s="15"/>
       <c r="B33" s="20"/>
       <c r="C33" s="25"/>
@@ -2864,7 +2861,7 @@
       <c r="H33" s="24"/>
       <c r="I33" s="15"/>
     </row>
-    <row r="34" spans="1:9" ht="18.5">
+    <row r="34" spans="1:9" ht="18">
       <c r="A34" s="15"/>
       <c r="B34" s="20"/>
       <c r="C34" s="25"/>
@@ -2875,7 +2872,7 @@
       <c r="H34" s="24"/>
       <c r="I34" s="15"/>
     </row>
-    <row r="35" spans="1:9" ht="18.5">
+    <row r="35" spans="1:9" ht="18">
       <c r="A35" s="15"/>
       <c r="B35" s="20"/>
       <c r="C35" s="25"/>
@@ -2886,7 +2883,7 @@
       <c r="H35" s="24"/>
       <c r="I35" s="15"/>
     </row>
-    <row r="36" spans="1:9" ht="18.5">
+    <row r="36" spans="1:9" ht="18">
       <c r="A36" s="15"/>
       <c r="B36" s="20"/>
       <c r="C36" s="25"/>
@@ -2897,7 +2894,7 @@
       <c r="H36" s="24"/>
       <c r="I36" s="15"/>
     </row>
-    <row r="37" spans="1:9" ht="18.5">
+    <row r="37" spans="1:9" ht="18">
       <c r="A37" s="15"/>
       <c r="B37" s="20"/>
       <c r="C37" s="25"/>
@@ -2908,7 +2905,7 @@
       <c r="H37" s="24"/>
       <c r="I37" s="15"/>
     </row>
-    <row r="38" spans="1:9" ht="18.5">
+    <row r="38" spans="1:9" ht="18">
       <c r="A38" s="15"/>
       <c r="B38" s="20"/>
       <c r="C38" s="33"/>
@@ -2953,19 +2950,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4515AB4-92A4-47BF-A547-687646110248}">
   <dimension ref="B2:I38"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="3" max="3" width="22.81640625" customWidth="1"/>
-    <col min="4" max="4" width="37.6328125" customWidth="1"/>
-    <col min="10" max="11" width="3.453125" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" customWidth="1"/>
+    <col min="4" max="4" width="37.6640625" customWidth="1"/>
+    <col min="10" max="11" width="3.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="18">
+    <row r="2" spans="2:9" ht="17.399999999999999">
       <c r="B2" s="50" t="s">
         <v>223</v>
       </c>
@@ -3015,7 +3012,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="63" thickBot="1">
+    <row r="6" spans="2:9" ht="66.599999999999994" thickBot="1">
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
@@ -3651,24 +3648,24 @@
       <selection activeCell="D18" sqref="D18:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="4" max="4" width="33.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.453125" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="4" max="4" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.44140625" customWidth="1"/>
     <col min="6" max="6" width="52" customWidth="1"/>
-    <col min="9" max="9" width="10.453125" customWidth="1"/>
-    <col min="10" max="10" width="10.6328125" customWidth="1"/>
-    <col min="12" max="12" width="3.453125" customWidth="1"/>
-    <col min="14" max="14" width="33.54296875" customWidth="1"/>
-    <col min="15" max="15" width="23.36328125" customWidth="1"/>
-    <col min="16" max="16" width="18.90625" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="12" max="12" width="3.44140625" customWidth="1"/>
+    <col min="14" max="14" width="33.5546875" customWidth="1"/>
+    <col min="15" max="15" width="23.33203125" customWidth="1"/>
+    <col min="16" max="16" width="18.88671875" customWidth="1"/>
     <col min="17" max="17" width="12" customWidth="1"/>
     <col min="19" max="19" width="19" customWidth="1"/>
-    <col min="20" max="20" width="19.90625" customWidth="1"/>
+    <col min="20" max="20" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="18">
+    <row r="2" spans="2:11" ht="17.399999999999999">
       <c r="B2" s="50" t="s">
         <v>224</v>
       </c>
@@ -4310,23 +4307,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853A1F15-92F7-45DD-8C2E-0DA31E945771}">
   <dimension ref="B2:AW41"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="19.54296875" customWidth="1"/>
-    <col min="4" max="4" width="14.6328125" customWidth="1"/>
-    <col min="18" max="18" width="9.453125" customWidth="1"/>
-    <col min="19" max="19" width="9.7265625" customWidth="1"/>
-    <col min="21" max="21" width="9.90625" customWidth="1"/>
-    <col min="38" max="38" width="3.453125" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="18" max="18" width="9.44140625" customWidth="1"/>
+    <col min="19" max="19" width="9.77734375" customWidth="1"/>
+    <col min="21" max="21" width="9.88671875" customWidth="1"/>
+    <col min="38" max="38" width="3.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:49" ht="18">
+    <row r="2" spans="2:49" ht="17.399999999999999">
       <c r="B2" s="52" t="s">
         <v>225</v>
       </c>
@@ -4380,7 +4377,7 @@
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2"/>
     </row>
-    <row r="5" spans="2:49" ht="39">
+    <row r="5" spans="2:49" ht="39.6">
       <c r="B5" s="3" t="s">
         <v>88</v>
       </c>
@@ -4989,13 +4986,11 @@
         <v>ELC_HV</v>
       </c>
       <c r="E10" s="14">
-        <v>2035</v>
+        <v>2040</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="5">
-        <v>0.33</v>
-      </c>
+      <c r="H10" s="5"/>
       <c r="I10" s="5">
         <v>0.33</v>
       </c>
@@ -5023,9 +5018,7 @@
       </c>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
-      <c r="T10" s="5">
-        <v>371</v>
-      </c>
+      <c r="T10" s="5"/>
       <c r="U10" s="5">
         <v>371</v>
       </c>
@@ -5037,9 +5030,7 @@
       </c>
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
-      <c r="Z10" s="5">
-        <v>7.22</v>
-      </c>
+      <c r="Z10" s="5"/>
       <c r="AA10" s="5">
         <v>7.22</v>
       </c>
@@ -5731,7 +5722,7 @@
       <c r="AP16" s="8"/>
       <c r="AQ16" s="8"/>
     </row>
-    <row r="19" spans="2:31" ht="18">
+    <row r="19" spans="2:31" ht="17.399999999999999">
       <c r="B19" s="52" t="s">
         <v>274</v>
       </c>
@@ -5801,7 +5792,7 @@
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
     </row>
-    <row r="22" spans="2:31" ht="39">
+    <row r="22" spans="2:31" ht="39.6">
       <c r="B22" s="3" t="s">
         <v>88</v>
       </c>
@@ -5893,7 +5884,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="23" spans="2:31" ht="63" thickBot="1">
+    <row r="23" spans="2:31" ht="79.8" thickBot="1">
       <c r="B23" s="68" t="s">
         <v>262</v>
       </c>
@@ -6736,26 +6727,26 @@
       <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="32.36328125" customWidth="1"/>
-    <col min="3" max="3" width="7.6328125" customWidth="1"/>
-    <col min="4" max="4" width="9.90625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" customWidth="1"/>
-    <col min="7" max="7" width="7.36328125" customWidth="1"/>
-    <col min="8" max="8" width="8.36328125" customWidth="1"/>
-    <col min="9" max="9" width="10.6328125" customWidth="1"/>
-    <col min="10" max="15" width="8.90625" customWidth="1"/>
-    <col min="17" max="17" width="8.36328125" customWidth="1"/>
-    <col min="18" max="18" width="5.90625" customWidth="1"/>
-    <col min="19" max="19" width="11.08984375" customWidth="1"/>
-    <col min="20" max="20" width="3.453125" customWidth="1"/>
-    <col min="23" max="23" width="11.08984375" customWidth="1"/>
-    <col min="24" max="24" width="12.36328125" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
+    <col min="10" max="15" width="8.88671875" customWidth="1"/>
+    <col min="17" max="17" width="8.33203125" customWidth="1"/>
+    <col min="18" max="18" width="5.88671875" customWidth="1"/>
+    <col min="19" max="19" width="11.109375" customWidth="1"/>
+    <col min="20" max="20" width="3.44140625" customWidth="1"/>
+    <col min="23" max="23" width="11.109375" customWidth="1"/>
+    <col min="24" max="24" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25" ht="18">
+    <row r="2" spans="2:25" ht="17.399999999999999">
       <c r="B2" s="52" t="s">
         <v>226</v>
       </c>
@@ -6794,7 +6785,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="2:25" ht="26">
+    <row r="5" spans="2:25" ht="26.4">
       <c r="B5" s="3" t="s">
         <v>88</v>
       </c>
@@ -6862,7 +6853,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="2:25" ht="39.5" thickBot="1">
+    <row r="6" spans="2:25" ht="40.200000000000003" thickBot="1">
       <c r="B6" s="4" t="s">
         <v>95</v>
       </c>
@@ -7214,21 +7205,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89A6A65-8500-4986-A451-7A6D44D018CD}">
   <dimension ref="B2:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="31.08984375" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="31.109375" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="17" customWidth="1"/>
     <col min="6" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="3.453125" customWidth="1"/>
+    <col min="8" max="8" width="3.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="18">
+    <row r="2" spans="2:7" ht="17.399999999999999">
       <c r="B2" s="52" t="s">
         <v>227</v>
       </c>
@@ -7239,14 +7230,14 @@
       <c r="G2" s="53"/>
     </row>
     <row r="4" spans="2:7" ht="18.75" customHeight="1">
-      <c r="B4" s="78"/>
-      <c r="C4" s="78" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="3" t="s">
@@ -7284,91 +7275,91 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:7" ht="18.75" customHeight="1">
-      <c r="B7" s="79" t="str">
+      <c r="B7" s="1" t="str">
         <f>FI_Proc!D7</f>
         <v>ELE_NEW_GT</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
         <v>55.48</v>
       </c>
-      <c r="G7" s="79"/>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="2:7" ht="18.75" customHeight="1">
-      <c r="B8" s="80" t="str">
+      <c r="B8" s="5" t="str">
         <f>FI_Proc!D8</f>
         <v>ELE_NEW_CCGT</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5">
         <v>55.48</v>
       </c>
-      <c r="G8" s="80"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="2:7" ht="18.75" customHeight="1">
-      <c r="B9" s="79" t="str">
+      <c r="B9" s="1" t="str">
         <f>FI_Proc!D9</f>
         <v>ELE_NEW_CCGT_CCS</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
         <v>6.7</v>
       </c>
-      <c r="G9" s="79"/>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="2:7" ht="18.75" customHeight="1">
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="80">
+      <c r="D10" s="5">
         <v>93.54</v>
       </c>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="2:7" ht="18.75" customHeight="1">
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C11" s="79" t="s">
+      <c r="C11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1">
         <v>77.75</v>
       </c>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="2:7" ht="18.75" customHeight="1">
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="C12" s="80" t="s">
+      <c r="C12" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5">
         <v>55.48</v>
       </c>
-      <c r="G12" s="80"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="2:7" ht="18.75" customHeight="1" thickBot="1">
       <c r="B13" s="6" t="s">
@@ -7633,6 +7624,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
@@ -7641,15 +7641,6 @@
     <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7672,6 +7663,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5AAFE7B-91A6-4DA8-864E-224DD7D31BD5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C63053AE-6048-4613-A07E-94A24F0802DF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -7680,12 +7679,4 @@
     <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5AAFE7B-91A6-4DA8-864E-224DD7D31BD5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SubRES_TMPL/subres_NEW_PP_STG.xlsx
+++ b/SubRES_TMPL/subres_NEW_PP_STG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9092C1B3-DF76-46D5-BD8F-9A64CA014ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C16E7E8-C72A-4588-98A0-13279D342B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{101DBA6F-19E2-4CD0-9C26-9AF2E34057CC}"/>
   </bookViews>
@@ -4307,8 +4307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853A1F15-92F7-45DD-8C2E-0DA31E945771}">
   <dimension ref="B2:AW41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AT14" sqref="AT14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5001,12 +5001,8 @@
         <v>0.33</v>
       </c>
       <c r="L10" s="5"/>
-      <c r="M10" s="5">
-        <v>21174</v>
-      </c>
-      <c r="N10" s="5">
-        <v>20756</v>
-      </c>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
       <c r="O10" s="5">
         <v>19996</v>
       </c>
@@ -7624,15 +7620,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
@@ -7641,6 +7628,15 @@
     <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7663,14 +7659,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5AAFE7B-91A6-4DA8-864E-224DD7D31BD5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C63053AE-6048-4613-A07E-94A24F0802DF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -7679,4 +7667,12 @@
     <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5AAFE7B-91A6-4DA8-864E-224DD7D31BD5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SubRES_TMPL/subres_NEW_PP_STG.xlsx
+++ b/SubRES_TMPL/subres_NEW_PP_STG.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C16E7E8-C72A-4588-98A0-13279D342B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAB328C-6097-4CCA-B57F-EC762277CE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{101DBA6F-19E2-4CD0-9C26-9AF2E34057CC}"/>
   </bookViews>
@@ -4308,7 +4308,7 @@
   <dimension ref="B2:AW41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AT14" sqref="AT14"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7377,6 +7377,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A7D98A4600D5044F9F854C890D6CC50E" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8a3173f591826d139beec1ab1c321b3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8acd6055-54fc-4ce7-b3df-0a09834a0329" xmlns:ns3="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d6c64c9e569b4593220799f669190593" ns2:_="" ns3:_="">
     <xsd:import namespace="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
@@ -7619,27 +7639,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5AAFE7B-91A6-4DA8-864E-224DD7D31BD5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C63053AE-6048-4613-A07E-94A24F0802DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
+    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1831A2D-CF62-48D1-9280-97355A0AACB8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7656,23 +7675,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C63053AE-6048-4613-A07E-94A24F0802DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5AAFE7B-91A6-4DA8-864E-224DD7D31BD5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SubRES_TMPL/subres_NEW_PP_STG.xlsx
+++ b/SubRES_TMPL/subres_NEW_PP_STG.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAB328C-6097-4CCA-B57F-EC762277CE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22393966-24B4-49CC-83A6-A4FC1D1CD805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{101DBA6F-19E2-4CD0-9C26-9AF2E34057CC}"/>
   </bookViews>
@@ -7386,17 +7386,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A7D98A4600D5044F9F854C890D6CC50E" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8a3173f591826d139beec1ab1c321b3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8acd6055-54fc-4ce7-b3df-0a09834a0329" xmlns:ns3="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d6c64c9e569b4593220799f669190593" ns2:_="" ns3:_="">
     <xsd:import namespace="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
@@ -7639,6 +7628,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5AAFE7B-91A6-4DA8-864E-224DD7D31BD5}">
   <ds:schemaRefs>
@@ -7648,17 +7648,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C63053AE-6048-4613-A07E-94A24F0802DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1831A2D-CF62-48D1-9280-97355A0AACB8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7675,4 +7664,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C63053AE-6048-4613-A07E-94A24F0802DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
+    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SubRES_TMPL/subres_NEW_PP_STG.xlsx
+++ b/SubRES_TMPL/subres_NEW_PP_STG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22393966-24B4-49CC-83A6-A4FC1D1CD805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5B1088-4445-45FC-9ABB-EE47E95C6EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{101DBA6F-19E2-4CD0-9C26-9AF2E34057CC}"/>
   </bookViews>
@@ -4308,7 +4308,7 @@
   <dimension ref="B2:AW41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4986,7 +4986,7 @@
         <v>ELC_HV</v>
       </c>
       <c r="E10" s="14">
-        <v>2040</v>
+        <v>2045</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -7386,6 +7386,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A7D98A4600D5044F9F854C890D6CC50E" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8a3173f591826d139beec1ab1c321b3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8acd6055-54fc-4ce7-b3df-0a09834a0329" xmlns:ns3="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d6c64c9e569b4593220799f669190593" ns2:_="" ns3:_="">
     <xsd:import namespace="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
@@ -7628,17 +7639,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5AAFE7B-91A6-4DA8-864E-224DD7D31BD5}">
   <ds:schemaRefs>
@@ -7648,6 +7648,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C63053AE-6048-4613-A07E-94A24F0802DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
+    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1831A2D-CF62-48D1-9280-97355A0AACB8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7664,15 +7675,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C63053AE-6048-4613-A07E-94A24F0802DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SubRES_TMPL/subres_NEW_PP_STG.xlsx
+++ b/SubRES_TMPL/subres_NEW_PP_STG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5B1088-4445-45FC-9ABB-EE47E95C6EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889A845B-6D0A-435E-AF55-1D4B692D5841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{101DBA6F-19E2-4CD0-9C26-9AF2E34057CC}"/>
   </bookViews>
@@ -4308,7 +4308,7 @@
   <dimension ref="B2:AW41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4873,7 +4873,7 @@
         <v>ELC_HV</v>
       </c>
       <c r="E9" s="14">
-        <v>2030</v>
+        <v>2060</v>
       </c>
       <c r="F9" s="1">
         <v>0.5</v>
@@ -4986,7 +4986,7 @@
         <v>ELC_HV</v>
       </c>
       <c r="E10" s="14">
-        <v>2045</v>
+        <v>2040</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>

--- a/SubRES_TMPL/subres_NEW_PP_STG.xlsx
+++ b/SubRES_TMPL/subres_NEW_PP_STG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889A845B-6D0A-435E-AF55-1D4B692D5841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC922F2D-17AB-41C5-85B3-EFB8D5458357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{101DBA6F-19E2-4CD0-9C26-9AF2E34057CC}"/>
   </bookViews>
@@ -4308,7 +4308,7 @@
   <dimension ref="B2:AW41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4986,7 +4986,7 @@
         <v>ELC_HV</v>
       </c>
       <c r="E10" s="14">
-        <v>2040</v>
+        <v>2045</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -7386,17 +7386,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A7D98A4600D5044F9F854C890D6CC50E" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8a3173f591826d139beec1ab1c321b3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8acd6055-54fc-4ce7-b3df-0a09834a0329" xmlns:ns3="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d6c64c9e569b4593220799f669190593" ns2:_="" ns3:_="">
     <xsd:import namespace="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
@@ -7639,6 +7628,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5AAFE7B-91A6-4DA8-864E-224DD7D31BD5}">
   <ds:schemaRefs>
@@ -7648,17 +7648,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C63053AE-6048-4613-A07E-94A24F0802DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1831A2D-CF62-48D1-9280-97355A0AACB8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7675,4 +7664,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C63053AE-6048-4613-A07E-94A24F0802DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
+    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>